--- a/biology/Botanique/Glaucocystophytes/Glaucocystophytes.xlsx
+++ b/biology/Botanique/Glaucocystophytes/Glaucocystophytes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glaucophytes, Glaucocystophytes
 Les Glaucophytes (Glaucophyta), ou Glaucocystophytes, du grec γλαυϰός [glaukos], « glauque » c'est-à-dire « vert ou bleu tirant vers le gris », et φυτ(ο) [phyt(o)], « végétal », constituent un groupe d'algues d'eau douce, de diversité réduite : seules 14 espèces ont été décrites et sont actuellement acceptées. Ce sont des organismes unicellulaires structurés dorso-ventralement, au dos arrondi et au ventre aplati et présentant deux flagelles de longueurs inégales. Ils nagent dans les mares d'eau douce des régions tempérées.
@@ -512,7 +524,9 @@
           <t>Caractéristiques propres au taxon</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les organismes regroupés sous ce taxon se caractérisent par :
 des chloroplastes, ou « cyanelles », de couleur bleu-vert : les pigments accessoires contenus dans les phycobilisomes sont la phycocyanine et l'allophycocyanine,
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Classification
-Selon AlgaeBase                                           (consulté le 2 août 2013)[1] :
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (consulté le 2 août 2013) :
 Embranchement des Glaucophyta
 Classe des Glaucophyceae
 Ordre des Glaucocystales
@@ -577,23 +596,160 @@
 Genre Peliaina
 espèce Peliaina cyanea - type
 Genre Strobilomonas
-espèce Strobilomonas cyaneus - type
-Liste des classes
-Selon AlgaeBase                                           (2 août 2013)[2], ITIS      (2 août 2013)[3], NCBI  (2 août 2013)[4] et World Register of Marine Species                               (2 août 2013)[5] :
-classe des Glaucophyceae Bohlin
-Genres
-Glaucocystis (immobile)
+espèce Strobilomonas cyaneus - type</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glaucocystophytes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaucocystophytes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (2 août 2013), ITIS      (2 août 2013), NCBI  (2 août 2013) et World Register of Marine Species                               (2 août 2013) :
+classe des Glaucophyceae Bohlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Glaucocystophytes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaucocystophytes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Glaucocystis (immobile)
 Cyanophora (mobile)
-Gloeochaete (2 stades : immobile &amp;  mobile)
-Exemple d'espèces de Glaucophytes
-Cyanophora paradoxa
+Gloeochaete (2 stades : immobile &amp;  mobile)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Glaucocystophytes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaucocystophytes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Exemple d'espèces de Glaucophytes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyanophora paradoxa
 Glaucocystis nostochinearum
 Gloeochaete wittrockiana
 Aucune espèce fossile n'est connue.
-Position phylogénétique au sein des Plantes
-Les Glaucophyta ont d'abord été classées dans les Chlorophyta[6], puis dans les Rhodophyta[7]. Le genre Cyanophora a même été rangé dans les Cryptophyta[8].
-Cavalier-Smith[9] les regroupe avec les Rhodophyta dans le sous-règne des Biliphyta.
-Le genre Glaucosphaera initialement décrit dans les Glaucophyta bien que dépourvu de flagelles, et présentant une gaine mucilagineuse, a été finalement rangé dans les algues rouges unicellulaires, sur la base d'analyses de séquences d'ARNr[10].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Glaucocystophytes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaucocystophytes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Position phylogénétique au sein des Plantes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Glaucophyta ont d'abord été classées dans les Chlorophyta, puis dans les Rhodophyta. Le genre Cyanophora a même été rangé dans les Cryptophyta.
+Cavalier-Smith les regroupe avec les Rhodophyta dans le sous-règne des Biliphyta.
+Le genre Glaucosphaera initialement décrit dans les Glaucophyta bien que dépourvu de flagelles, et présentant une gaine mucilagineuse, a été finalement rangé dans les algues rouges unicellulaires, sur la base d'analyses de séquences d'ARNr.
 On y lira en suivant le lien ci-dessous la question débattue dans les années 2000 de la monophylie ou non des Archéplastides (= Plantae) et de la place respective des Glaucophytes et des Rhodophytes soit à la base de celles-ci, soit à la base de l'ensemble des Bicontes chlorophylliens.
 </t>
         </is>
